--- a/data/trans_orig/P6516-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6516-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DEE087B-5C02-4A93-96BD-82067A765FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{712B5868-A08C-44A6-A358-E03AA1DD50E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C19E6091-2F7E-4CDA-B439-9C3E1F4FE93B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8ED43835-5E78-4EA2-8B40-78F40407AF13}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="159">
   <si>
     <t>Población según tener que relacionarse con gente que no son compañeros durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,05%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>50,45%</t>
   </si>
   <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
   </si>
   <si>
     <t>39,7%</t>
   </si>
   <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
   </si>
   <si>
     <t>47,36%</t>
   </si>
   <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>14,87%</t>
   </si>
   <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
   </si>
   <si>
     <t>15,59%</t>
   </si>
   <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
   </si>
   <si>
     <t>15,08%</t>
   </si>
   <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,385 +134,382 @@
     <t>11,99%</t>
   </si>
   <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
   </si>
   <si>
     <t>6,76%</t>
   </si>
   <si>
-    <t>3,4%</t>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
   </si>
   <si>
     <t>11,89%</t>
   </si>
   <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
+    <t>17,42%</t>
   </si>
   <si>
     <t>10,27%</t>
   </si>
   <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
   </si>
   <si>
     <t>13,2%</t>
   </si>
   <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
   </si>
   <si>
     <t>11,49%</t>
   </si>
   <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
   </si>
   <si>
     <t>22,19%</t>
   </si>
   <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
   </si>
   <si>
     <t>17,3%</t>
   </si>
   <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
   </si>
   <si>
     <t>20,15%</t>
   </si>
   <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
   </si>
   <si>
     <t>54,58%</t>
   </si>
   <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
   </si>
   <si>
     <t>53,02%</t>
   </si>
   <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
   </si>
   <si>
     <t>53,93%</t>
   </si>
   <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
   </si>
   <si>
     <t>30,05%</t>
   </si>
   <si>
-    <t>32,2%</t>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
   </si>
   <si>
     <t>24,9%</t>
   </si>
   <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
   </si>
   <si>
     <t>28,25%</t>
   </si>
   <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
   </si>
   <si>
     <t>14,85%</t>
   </si>
   <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
   </si>
   <si>
     <t>12,78%</t>
   </si>
   <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
   </si>
   <si>
     <t>17,97%</t>
   </si>
   <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
   </si>
   <si>
     <t>12,79%</t>
   </si>
   <si>
-    <t>10,78%</t>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
   </si>
   <si>
     <t>14,9%</t>
   </si>
   <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
+    <t>17,59%</t>
   </si>
   <si>
     <t>37,13%</t>
   </si>
   <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
   </si>
   <si>
     <t>49,52%</t>
   </si>
   <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
   </si>
   <si>
     <t>41,46%</t>
   </si>
   <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
+    <t>43,42%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -927,7 +924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9D0E97-14DE-4B76-9CFF-CEED61606FEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C7E379-83ED-4909-AE57-1693166BDDBC}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1825,10 +1822,10 @@
         <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>239</v>
@@ -1837,13 +1834,13 @@
         <v>254878</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>782</v>
@@ -1852,13 +1849,13 @@
         <v>827363</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1873,13 +1870,13 @@
         <v>282935</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>120</v>
@@ -1888,13 +1885,13 @@
         <v>130824</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>397</v>
@@ -1903,7 +1900,7 @@
         <v>413760</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>139</v>
@@ -2008,10 +2005,10 @@
         <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2067,7 +2064,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6516-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6516-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{712B5868-A08C-44A6-A358-E03AA1DD50E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F729FBE4-82DB-4982-9624-BDFDF7E9281A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8ED43835-5E78-4EA2-8B40-78F40407AF13}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A8812FB7-5D5F-49B6-8494-9D32D2888B6A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="158">
   <si>
     <t>Población según tener que relacionarse con gente que no son compañeros durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,05%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>50,45%</t>
   </si>
   <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
   </si>
   <si>
     <t>39,7%</t>
   </si>
   <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
   </si>
   <si>
     <t>47,36%</t>
   </si>
   <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,412 +104,409 @@
     <t>14,87%</t>
   </si>
   <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
   </si>
   <si>
     <t>15,59%</t>
   </si>
   <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
   </si>
   <si>
     <t>15,08%</t>
   </si>
   <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
     <t>11,86%</t>
   </si>
   <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
+    <t>17,07%</t>
   </si>
   <si>
     <t>10,27%</t>
   </si>
   <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
   </si>
   <si>
     <t>13,2%</t>
   </si>
   <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
   </si>
   <si>
     <t>11,49%</t>
   </si>
   <si>
-    <t>9,14%</t>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
   </si>
   <si>
     <t>14,13%</t>
   </si>
   <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
   </si>
   <si>
     <t>17,97%</t>
   </si>
   <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
   </si>
   <si>
     <t>12,79%</t>
   </si>
   <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
+    <t>10,97%</t>
   </si>
   <si>
     <t>16,16%</t>
   </si>
   <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
+    <t>17,54%</t>
   </si>
   <si>
     <t>37,13%</t>
   </si>
   <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
   </si>
   <si>
     <t>49,52%</t>
   </si>
   <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
   </si>
   <si>
     <t>41,46%</t>
   </si>
   <si>
-    <t>43,42%</t>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -924,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C7E379-83ED-4909-AE57-1693166BDDBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ECEF1A3-9734-4269-A3DE-50F1F444C40D}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1443,7 +1440,7 @@
         <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1458,13 +1455,13 @@
         <v>401086</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>289</v>
@@ -1473,13 +1470,13 @@
         <v>296059</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>668</v>
@@ -1488,13 +1485,13 @@
         <v>697145</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1550,7 +1547,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1562,13 +1559,13 @@
         <v>52504</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>45</v>
@@ -1580,10 +1577,10 @@
         <v>61</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>95</v>
@@ -1592,13 +1589,13 @@
         <v>100183</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1613,13 +1610,13 @@
         <v>41645</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>34</v>
@@ -1628,13 +1625,13 @@
         <v>38173</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>76</v>
@@ -1643,13 +1640,13 @@
         <v>79818</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1664,13 +1661,13 @@
         <v>89923</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -1679,13 +1676,13 @@
         <v>50019</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>136</v>
@@ -1694,13 +1691,13 @@
         <v>139942</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1715,13 +1712,13 @@
         <v>221238</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>150</v>
@@ -1730,13 +1727,13 @@
         <v>153312</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>359</v>
@@ -1745,13 +1742,13 @@
         <v>374549</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1819,13 +1816,13 @@
         <v>572486</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>239</v>
@@ -1834,13 +1831,13 @@
         <v>254878</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>782</v>
@@ -1849,13 +1846,13 @@
         <v>827363</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1870,13 +1867,13 @@
         <v>282935</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>120</v>
@@ -1885,13 +1882,13 @@
         <v>130824</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>397</v>
@@ -1900,7 +1897,7 @@
         <v>413760</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>139</v>
@@ -1942,7 +1939,7 @@
         <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="M21" s="7">
         <v>459</v>
@@ -1951,13 +1948,13 @@
         <v>473378</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1972,13 +1969,13 @@
         <v>707513</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>493</v>
@@ -1987,13 +1984,13 @@
         <v>506843</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>1165</v>
@@ -2002,13 +1999,13 @@
         <v>1214356</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2064,7 +2061,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6516-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6516-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F729FBE4-82DB-4982-9624-BDFDF7E9281A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D489B17C-A5D7-4236-936E-4370E5F2FDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A8812FB7-5D5F-49B6-8494-9D32D2888B6A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BB11B90F-0127-4313-8052-09C5DFCC6702}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="160">
   <si>
     <t>Población según tener que relacionarse con gente que no son compañeros durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,05%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>50,45%</t>
   </si>
   <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
   </si>
   <si>
     <t>39,7%</t>
   </si>
   <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
   </si>
   <si>
     <t>47,36%</t>
   </si>
   <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>14,87%</t>
   </si>
   <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
   </si>
   <si>
     <t>15,59%</t>
   </si>
   <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
   </si>
   <si>
     <t>15,08%</t>
   </si>
   <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>11,99%</t>
   </si>
   <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
   </si>
   <si>
     <t>6,76%</t>
   </si>
   <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
   </si>
   <si>
     <t>10,49%</t>
   </si>
   <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,25 +164,25 @@
     <t>22,69%</t>
   </si>
   <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
   </si>
   <si>
     <t>37,96%</t>
   </si>
   <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
   </si>
   <si>
     <t>27,07%</t>
   </si>
   <si>
-    <t>23,23%</t>
+    <t>23,26%</t>
   </si>
   <si>
     <t>31,02%</t>
@@ -197,316 +197,322 @@
     <t>29,39%</t>
   </si>
   <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
   </si>
   <si>
     <t>25,24%</t>
   </si>
   <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
   </si>
   <si>
     <t>27,97%</t>
   </si>
   <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
   </si>
   <si>
     <t>16,49%</t>
   </si>
   <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
   </si>
   <si>
     <t>11,85%</t>
   </si>
   <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
   </si>
   <si>
     <t>14,91%</t>
   </si>
   <si>
-    <t>13,25%</t>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
   </si>
   <si>
     <t>16,69%</t>
   </si>
   <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
     <t>12,78%</t>
   </si>
   <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
   </si>
   <si>
     <t>14,13%</t>
   </si>
   <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
   </si>
   <si>
     <t>17,97%</t>
   </si>
   <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
   </si>
   <si>
     <t>12,79%</t>
   </si>
   <si>
-    <t>10,97%</t>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
   </si>
   <si>
     <t>16,16%</t>
   </si>
   <si>
-    <t>17,54%</t>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
   </si>
   <si>
     <t>37,13%</t>
   </si>
   <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
   </si>
   <si>
     <t>49,52%</t>
   </si>
   <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
   </si>
   <si>
     <t>41,46%</t>
   </si>
   <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -921,7 +927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ECEF1A3-9734-4269-A3DE-50F1F444C40D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF93446-A06E-41BB-AF8D-3923E805B0EC}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1440,7 +1446,7 @@
         <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1455,13 +1461,13 @@
         <v>401086</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>289</v>
@@ -1470,13 +1476,13 @@
         <v>296059</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>668</v>
@@ -1485,13 +1491,13 @@
         <v>697145</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1547,7 +1553,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1559,13 +1565,13 @@
         <v>52504</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>45</v>
@@ -1577,10 +1583,10 @@
         <v>61</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>95</v>
@@ -1589,13 +1595,13 @@
         <v>100183</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1610,13 +1616,13 @@
         <v>41645</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>34</v>
@@ -1625,13 +1631,13 @@
         <v>38173</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>76</v>
@@ -1640,13 +1646,13 @@
         <v>79818</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1661,13 +1667,13 @@
         <v>89923</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -1676,13 +1682,13 @@
         <v>50019</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>136</v>
@@ -1691,13 +1697,13 @@
         <v>139942</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1712,13 +1718,13 @@
         <v>221238</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>150</v>
@@ -1727,13 +1733,13 @@
         <v>153312</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>359</v>
@@ -1742,13 +1748,13 @@
         <v>374549</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1816,10 +1822,10 @@
         <v>572486</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>125</v>
@@ -1939,7 +1945,7 @@
         <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>459</v>
@@ -1948,13 +1954,13 @@
         <v>473378</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,13 +1975,13 @@
         <v>707513</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>493</v>
@@ -1984,13 +1990,13 @@
         <v>506843</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>1165</v>
@@ -1999,13 +2005,13 @@
         <v>1214356</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2061,7 +2067,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6516-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6516-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D489B17C-A5D7-4236-936E-4370E5F2FDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A31D5F2C-1BBA-4611-BA1A-D4B314E85C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BB11B90F-0127-4313-8052-09C5DFCC6702}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{29566F9A-D89C-43EE-9AAB-DA9FED24899F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -927,7 +927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF93446-A06E-41BB-AF8D-3923E805B0EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175C4288-0714-43CA-8A36-C2B45F4960BE}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1643,7 +1643,7 @@
         <v>76</v>
       </c>
       <c r="N15" s="7">
-        <v>79818</v>
+        <v>79819</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>103</v>
@@ -1745,7 +1745,7 @@
         <v>359</v>
       </c>
       <c r="N17" s="7">
-        <v>374549</v>
+        <v>374550</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>121</v>
@@ -1796,7 +1796,7 @@
         <v>666</v>
       </c>
       <c r="N18" s="7">
-        <v>694492</v>
+        <v>694493</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
